--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/10/seed1/result_data_KNN.xlsx
@@ -505,10 +505,10 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.112</v>
+        <v>-7.717000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>13.03</v>
+        <v>13.265</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.666</v>
+        <v>13.254</v>
       </c>
     </row>
     <row r="6">
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.569999999999999</v>
+        <v>-7.612</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.256</v>
+        <v>13.718</v>
       </c>
     </row>
     <row r="9">
@@ -709,10 +709,10 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.423999999999999</v>
+        <v>-8.219999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>13.978</v>
+        <v>12.978</v>
       </c>
     </row>
     <row r="17">
